--- a/document/折旧方法列表.xlsx
+++ b/document/折旧方法列表.xlsx
@@ -98,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -107,11 +107,13 @@
     <col min="1" max="1" width="20.0" customWidth="true"/>
     <col min="2" max="2" width="30.0" customWidth="true"/>
     <col min="3" max="3" width="20.0" customWidth="true"/>
-    <col min="4" max="4" width="100.0" customWidth="true"/>
-    <col min="5" max="5" width="100.0" customWidth="true"/>
-    <col min="6" max="6" width="30.0" customWidth="true"/>
-    <col min="7" max="7" width="30.0" customWidth="true"/>
-    <col min="8" max="8" width="100.0" customWidth="true"/>
+    <col min="4" max="4" width="20.0" customWidth="true"/>
+    <col min="5" max="5" width="20.0" customWidth="true"/>
+    <col min="6" max="6" width="100.0" customWidth="true"/>
+    <col min="7" max="7" width="100.0" customWidth="true"/>
+    <col min="8" max="8" width="30.0" customWidth="true"/>
+    <col min="9" max="9" width="30.0" customWidth="true"/>
+    <col min="10" max="10" width="100.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -127,30 +129,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>资产数量</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>类别数量</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>状态</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>计算公式</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>公式说明</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>创建时间</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>修改时间</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
@@ -158,129 +170,161 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>不提折旧</t>
+          <t>平均年限法</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>44672.76194444444</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>44678.72998842593</v>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>不提折旧</t>
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>(GDZCMX_QCYZ*(1-GDZCZC_JCZL)-GDZCMX_QCLJZJ-GDZCZC_SZ05)/(abs(GDZCZC_ZJNX*NKJYS-GDZCMX_SYYS)+1)</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>(期初原值*(1-净残值率)-期初累计折旧-减值准备)/(取绝对值(折旧年限*年会计月数-已使用月数)+1)</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>44679.727106481485</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>44683.37594907408</v>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>年会计月数：当前会计年度有多少会计月份，一般为12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>平均年限法</t>
+          <t>工作量法</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>(GDZCMX_QCYZ*(1-GDZCZC_JCZL)-GDZCMX_QCLJZJ-GDZCZC_SZ05)/(abs(GDZCZC_ZJNX*NKJYS-GDZCMX_SYYS)+1)</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>(期初原值*(1-净残值率)-期初累计折旧-减值准备)/(取绝对值(折旧年限*年会计月数-已使用月数)+1)</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>44672.76200231481</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>年会计月数：当前会计年度有多少会计月份，一般为12</t>
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>GDZCMX_QCYZ*(1-GDZCZC_JCZL)/GDZCZC_ZGZL*GDZCMX_BYGZL</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>期初原值*(1-净残值率)/预计总工作量*本月工作量</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>44679.727106481485</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>44679.727106481485</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>工作量法</t>
+          <t>一次摊销</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>GDZCMX_QCYZ*(1-GDZCZC_JCZL)/GDZCZC_ZGZL*GDZCMX_BYGZL</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>期初原值*(1-净残值率)/预计总工作量*本月工作量</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>44672.762037037035</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>GDZCMX_QCYZ*(1-GDZCZC_JCZL)</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>期初原值*(1-净残值率)</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>44679.727106481485</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>44679.727106481485</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>用于会计制度规定一次计入费用的资产</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>一次摊销</t>
+          <t>不提折旧</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>GDZCMX_QCYZ*(1-GDZCZC_JCZL)</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>期初原值*(1-净残值率)</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>44672.76206018519</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>44678.73887731481</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>用于会计制度规定一次计入费用的资产</t>
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>44679.727106481485</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>44683.39619212963</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>不提折旧</t>
         </is>
       </c>
     </row>

--- a/document/折旧方法列表.xlsx
+++ b/document/折旧方法列表.xlsx
@@ -178,10 +178,10 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.0</v>
+        <v>1783.0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.0</v>
+        <v>7131.0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>1.0</v>
@@ -197,10 +197,10 @@
         </is>
       </c>
       <c r="H2" s="3" t="n">
-        <v>44679.727106481485</v>
+        <v>44687.38407407407</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>44683.37594907408</v>
+        <v>44687.38407407407</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
@@ -237,10 +237,10 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>44679.727106481485</v>
+        <v>44687.38407407407</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>44679.727106481485</v>
+        <v>44687.38407407407</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
@@ -258,7 +258,7 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.0</v>
+        <v>2595.0</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0.0</v>
@@ -277,10 +277,10 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>44679.727106481485</v>
+        <v>44687.38407407407</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>44679.727106481485</v>
+        <v>44687.38407407407</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
@@ -290,7 +290,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -317,10 +317,10 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>44679.727106481485</v>
+        <v>44687.38407407407</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>44683.39619212963</v>
+        <v>44687.38407407407</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>

--- a/document/折旧方法列表.xlsx
+++ b/document/折旧方法列表.xlsx
@@ -197,10 +197,10 @@
         </is>
       </c>
       <c r="H2" s="3" t="n">
-        <v>44687.38407407407</v>
+        <v>44687.386041666665</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>44687.38407407407</v>
+        <v>44687.386041666665</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
@@ -237,10 +237,10 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>44687.38407407407</v>
+        <v>44687.386041666665</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>44687.38407407407</v>
+        <v>44687.386041666665</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
@@ -277,10 +277,10 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>44687.38407407407</v>
+        <v>44687.386041666665</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>44687.38407407407</v>
+        <v>44687.386041666665</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
@@ -290,7 +290,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -301,7 +301,7 @@
         <v>0.0</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>1.0</v>
@@ -317,10 +317,10 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>44687.38407407407</v>
+        <v>44687.386041666665</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>44687.38407407407</v>
+        <v>44687.39077546296</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
